--- a/db.xlsx
+++ b/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>open_id</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,50 +139,274 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>is_used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_phone_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_phone_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coupon</t>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_used</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_date</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_logic_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,215 +414,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>old_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>old_phone_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_phone_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>express_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>express_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_logic_option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
+    <t>headimgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,14 +772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
@@ -776,16 +797,16 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -796,16 +817,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -814,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
         <v>12</v>
@@ -834,34 +855,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -869,78 +890,78 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
         <v>84</v>
       </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>86</v>
-      </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -951,22 +972,22 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -977,166 +998,172 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s">
         <v>73</v>
-      </c>
-      <c r="R10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
         <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.15">
@@ -1144,54 +1171,70 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
-      </c>
-      <c r="N21" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>open_id</t>
   </si>
@@ -143,9 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coupon</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,255 +171,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_phone_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_phone_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_logic_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headimgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>is_get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>old_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>old_phone_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_phone_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>express_comp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>express_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_logic_option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attention_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headimgurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_price</t>
+    <t>user_evaluate_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +792,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,7 +800,7 @@
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
@@ -797,16 +814,16 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -817,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -835,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
         <v>12</v>
@@ -864,25 +881,25 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
         <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -890,37 +907,37 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
         <v>14</v>
@@ -928,7 +945,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -940,28 +957,28 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -978,16 +995,16 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1003,16 +1020,22 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1029,13 +1052,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1048,20 +1068,17 @@
       <c r="F10" t="s">
         <v>24</v>
       </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1071,20 +1088,20 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -1094,20 +1111,20 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -1117,20 +1134,20 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
         <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -1140,98 +1157,110 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
